--- a/Generation_Day.xlsx
+++ b/Generation_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
-  <si>
-    <t>Daily Generation of Microgrid (Plant 5340310):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+  <si>
+    <t>Daily Generation of Microgrid (Plant 9209949):</t>
   </si>
   <si>
     <t>Hours</t>
@@ -25,535 +25,484 @@
     <t>Generation (kWh)</t>
   </si>
   <si>
-    <t>2023-02-14T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:45:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:50:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T13:55:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:00:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:05:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:10:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:15:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:20:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:25:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:30:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:35:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:40:00</t>
-  </si>
-  <si>
-    <t>2023-02-14T14:45:00</t>
+    <t>2023-03-14T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-03-14T13:20:00</t>
   </si>
 </sst>
 </file>
@@ -899,7 +848,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C179"/>
+  <dimension ref="A1:C162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1509,7 +1458,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>35.267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1517,7 +1466,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>91.25</v>
+        <v>8.384</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1525,7 +1474,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>142.917</v>
+        <v>82.01600000000001</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1533,7 +1482,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>192.117</v>
+        <v>163.317</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1541,7 +1490,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>243.834</v>
+        <v>276.033</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1549,7 +1498,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>302.483</v>
+        <v>456.334</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1557,7 +1506,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>362.25</v>
+        <v>446.784</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1565,7 +1514,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>429.717</v>
+        <v>559.134</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1573,7 +1522,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>509.784</v>
+        <v>745.2</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1581,7 +1530,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>594.0940000000001</v>
+        <v>920.034</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1589,7 +1538,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>681.967</v>
+        <v>1081.467</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1597,7 +1546,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>764.067</v>
+        <v>1116.15</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1605,7 +1554,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>841.216</v>
+        <v>1109.75</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1613,7 +1562,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>916.8</v>
+        <v>1458.55</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1621,7 +1570,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1016.2</v>
+        <v>1484.35</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1629,7 +1578,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>1144.866</v>
+        <v>2053.05</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1637,7 +1586,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1280.483</v>
+        <v>1747.983</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1645,7 +1594,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1411.384</v>
+        <v>1564.617</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1653,7 +1602,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1562.45</v>
+        <v>1360.983</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1661,7 +1610,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1754</v>
+        <v>1018.083</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1669,7 +1618,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2004.433</v>
+        <v>1400.983</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1677,7 +1626,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2290.933</v>
+        <v>1286.8</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1685,7 +1634,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2531.556</v>
+        <v>730.434</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1693,7 +1642,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2831.883</v>
+        <v>586.95</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1701,7 +1650,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3122.1</v>
+        <v>873.217</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1709,7 +1658,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3488.25</v>
+        <v>890.3339999999999</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1717,7 +1666,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>3787.233</v>
+        <v>770.8</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1725,7 +1674,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>3887.216</v>
+        <v>764.033</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1733,7 +1682,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>4039.85</v>
+        <v>832.067</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1741,7 +1690,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>4395.167</v>
+        <v>1067.434</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1749,7 +1698,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>4783.2</v>
+        <v>1040.917</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1757,7 +1706,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>5156.8</v>
+        <v>1060.317</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1765,7 +1714,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>5465.133</v>
+        <v>1213.933</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1773,7 +1722,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>5552.75</v>
+        <v>1360.767</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1781,7 +1730,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>5941.883</v>
+        <v>1151.85</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1789,7 +1738,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>6069.872</v>
+        <v>1342.533</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1797,7 +1746,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>6281.866</v>
+        <v>1142.567</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1805,7 +1754,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>6315.666</v>
+        <v>1374.917</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1813,7 +1762,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>6412.967</v>
+        <v>1547.9</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1821,7 +1770,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>5877.233</v>
+        <v>2043.316</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1829,7 +1778,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>5385.483</v>
+        <v>1972.633</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1837,7 +1786,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>5585.65</v>
+        <v>1800.9</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1845,7 +1794,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>6426.333</v>
+        <v>2137.4</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1853,7 +1802,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>6454.934</v>
+        <v>3141.883</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1861,7 +1810,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>6486.75</v>
+        <v>3249.417</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1869,7 +1818,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>6136.85</v>
+        <v>2664.633</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1877,7 +1826,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>5621.284</v>
+        <v>2739.667</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1885,7 +1834,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>5434.266</v>
+        <v>3001.05</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1893,7 +1842,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>5397.567</v>
+        <v>3602.8</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1901,7 +1850,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>5361.2</v>
+        <v>5163.45</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1909,7 +1858,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>5341.667</v>
+        <v>6593.917</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1917,7 +1866,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>5309.433</v>
+        <v>6508.134</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1925,7 +1874,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>5344.616</v>
+        <v>6608.983</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1933,7 +1882,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>5291.706</v>
+        <v>6596.816</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1941,7 +1890,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>5288.267</v>
+        <v>6308.9</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1949,7 +1898,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>2607.2</v>
+        <v>6552.033</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1957,7 +1906,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>937.1</v>
+        <v>6481</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1965,7 +1914,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>871.533</v>
+        <v>6571.816</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1973,7 +1922,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>873.15</v>
+        <v>6225.666</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1981,7 +1930,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>845.25</v>
+        <v>5905.734</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1989,7 +1938,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>749.9</v>
+        <v>4907.133</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1997,7 +1946,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>710.5839999999999</v>
+        <v>4484.15</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2005,7 +1954,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>683.534</v>
+        <v>4956.133</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2013,7 +1962,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>658.967</v>
+        <v>5622.616</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2021,7 +1970,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>598.716</v>
+        <v>4343.55</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2029,7 +1978,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>556.65</v>
+        <v>2623.9</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2037,7 +1986,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>562.984</v>
+        <v>2999.817</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2045,7 +1994,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>567.433</v>
+        <v>6116.234</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2053,7 +2002,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>543.7</v>
+        <v>6574.517</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2061,7 +2010,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>534.283</v>
+        <v>4849.284</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2069,7 +2018,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>523.35</v>
+        <v>3409.75</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2077,7 +2026,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>524.75</v>
+        <v>3116.217</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2085,7 +2034,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>528.466</v>
+        <v>2748.1</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2093,7 +2042,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>498.734</v>
+        <v>3076.5</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2101,7 +2050,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>493.217</v>
+        <v>5145.65</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2109,7 +2058,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>481.533</v>
+        <v>5157.1</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2117,7 +2066,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>473.766</v>
+        <v>5174.25</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2125,7 +2074,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>484.3</v>
+        <v>3962.583</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2133,7 +2082,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>480.767</v>
+        <v>3883.233</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2141,7 +2090,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>480.033</v>
+        <v>5400.35</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2149,7 +2098,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>491.378</v>
+        <v>2388.216</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2157,7 +2106,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>486.634</v>
+        <v>1298.65</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2165,7 +2114,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>480.516</v>
+        <v>1259.333</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2173,7 +2122,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>517.75</v>
+        <v>1202.384</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2181,7 +2130,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>563.4829999999999</v>
+        <v>1012.866</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2189,7 +2138,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>553.2670000000001</v>
+        <v>885.5170000000001</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2197,143 +2146,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>543.356</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" t="s">
-        <v>163</v>
-      </c>
-      <c r="B163">
-        <v>533.167</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" t="s">
-        <v>164</v>
-      </c>
-      <c r="B164">
-        <v>528.516</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" t="s">
-        <v>165</v>
-      </c>
-      <c r="B165">
-        <v>540.617</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" t="s">
-        <v>166</v>
-      </c>
-      <c r="B166">
-        <v>545.2</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" t="s">
-        <v>167</v>
-      </c>
-      <c r="B167">
-        <v>549.5839999999999</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" t="s">
-        <v>168</v>
-      </c>
-      <c r="B168">
-        <v>541.617</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" t="s">
-        <v>169</v>
-      </c>
-      <c r="B169">
-        <v>547.5</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" t="s">
-        <v>170</v>
-      </c>
-      <c r="B170">
-        <v>549.633</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" t="s">
-        <v>171</v>
-      </c>
-      <c r="B171">
-        <v>535.7</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" t="s">
-        <v>172</v>
-      </c>
-      <c r="B172">
-        <v>533.45</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" t="s">
-        <v>173</v>
-      </c>
-      <c r="B173">
-        <v>525.7</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" t="s">
-        <v>174</v>
-      </c>
-      <c r="B174">
-        <v>500.583</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" t="s">
-        <v>175</v>
-      </c>
-      <c r="B175">
-        <v>459.05</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" t="s">
-        <v>176</v>
-      </c>
-      <c r="B176">
-        <v>457.4</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2">
-      <c r="A177" t="s">
-        <v>177</v>
-      </c>
-      <c r="B177">
-        <v>463.017</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2">
-      <c r="A178" t="s">
-        <v>178</v>
-      </c>
-      <c r="B178">
-        <v>458.783</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" t="s">
-        <v>179</v>
-      </c>
-      <c r="B179">
-        <v>463.367</v>
+        <v>869.8</v>
       </c>
     </row>
   </sheetData>

--- a/Generation_Day.xlsx
+++ b/Generation_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
-  <si>
-    <t>Daily Generation of Microgrid (Plant 9209949):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
+  <si>
+    <t>Daily Generation of Microgrid (Plant 5340310):</t>
   </si>
   <si>
     <t>Hours</t>
@@ -25,484 +25,427 @@
     <t>Generation (kWh)</t>
   </si>
   <si>
-    <t>2023-03-14T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:20:00</t>
+    <t>2023-04-10T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-10T11:45:00</t>
   </si>
 </sst>
 </file>
@@ -848,7 +791,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1466,7 +1409,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>8.384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1474,7 +1417,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>82.01600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1482,7 +1425,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>163.317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1490,7 +1433,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>276.033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1498,7 +1441,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>456.334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1506,7 +1449,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>446.784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1514,7 +1457,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>559.134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1522,7 +1465,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>745.2</v>
+        <v>292.716</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1530,7 +1473,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>920.034</v>
+        <v>312.317</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1538,7 +1481,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1081.467</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1546,7 +1489,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>1116.15</v>
+        <v>562.65</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1554,7 +1497,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1109.75</v>
+        <v>996.5</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1562,7 +1505,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1458.55</v>
+        <v>911.45</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1570,7 +1513,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1484.35</v>
+        <v>1237.117</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1578,7 +1521,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2053.05</v>
+        <v>1463.316</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1586,7 +1529,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1747.983</v>
+        <v>1608.217</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1594,7 +1537,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1564.617</v>
+        <v>1857.417</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1602,7 +1545,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1360.983</v>
+        <v>2048.816</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1610,7 +1553,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1018.083</v>
+        <v>2432.667</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1618,7 +1561,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>1400.983</v>
+        <v>4089.616</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1626,7 +1569,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1286.8</v>
+        <v>4737.55</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1634,7 +1577,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>730.434</v>
+        <v>4542.983</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1642,7 +1585,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>586.95</v>
+        <v>4529.433</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1650,7 +1593,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>873.217</v>
+        <v>4616.967</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1658,7 +1601,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>890.3339999999999</v>
+        <v>2448.55</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1666,7 +1609,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>770.8</v>
+        <v>2863.533</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1674,7 +1617,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>764.033</v>
+        <v>3944.85</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1682,7 +1625,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>832.067</v>
+        <v>3154.1</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1690,7 +1633,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1067.434</v>
+        <v>2432.716</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1698,7 +1641,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>1040.917</v>
+        <v>3405.583</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1706,7 +1649,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1060.317</v>
+        <v>6026.9</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1714,7 +1657,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1213.933</v>
+        <v>5812.833</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1722,7 +1665,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>1360.767</v>
+        <v>5989.633</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1730,7 +1673,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1151.85</v>
+        <v>5530.383</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1738,7 +1681,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1342.533</v>
+        <v>4910.683</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1746,7 +1689,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1142.567</v>
+        <v>5793.567</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1754,7 +1697,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1374.917</v>
+        <v>5461.967</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1762,7 +1705,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1547.9</v>
+        <v>3057.317</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1770,7 +1713,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>2043.316</v>
+        <v>4509.933</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1778,7 +1721,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>1972.633</v>
+        <v>4694.366</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1786,7 +1729,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>1800.9</v>
+        <v>6379.717</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1794,7 +1737,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>2137.4</v>
+        <v>6387.4</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1802,7 +1745,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3141.883</v>
+        <v>6385</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1810,7 +1753,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3249.417</v>
+        <v>6365.266</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1818,7 +1761,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2664.633</v>
+        <v>6089.5</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1826,7 +1769,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>2739.667</v>
+        <v>4618.85</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1834,7 +1777,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>3001.05</v>
+        <v>3450.917</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1842,7 +1785,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>3602.8</v>
+        <v>5402.25</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1850,7 +1793,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>5163.45</v>
+        <v>6322.633</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1858,7 +1801,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>6593.917</v>
+        <v>5456.833</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1866,7 +1809,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>6508.134</v>
+        <v>5253.916</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1874,7 +1817,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>6608.983</v>
+        <v>5196.7</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1882,7 +1825,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>6596.816</v>
+        <v>5137.267</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1890,7 +1833,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>6308.9</v>
+        <v>5100.1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1898,7 +1841,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>6552.033</v>
+        <v>2911.916</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1906,7 +1849,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>6481</v>
+        <v>1021.75</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1914,7 +1857,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>6571.816</v>
+        <v>793.45</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1922,7 +1865,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>6225.666</v>
+        <v>788.317</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1930,7 +1873,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>5905.734</v>
+        <v>779.433</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1938,7 +1881,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>4907.133</v>
+        <v>747.216</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1946,7 +1889,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>4484.15</v>
+        <v>696.784</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1954,7 +1897,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>4956.133</v>
+        <v>625.1660000000001</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1962,7 +1905,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>5622.616</v>
+        <v>621.05</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1970,7 +1913,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>4343.55</v>
+        <v>611.283</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1978,7 +1921,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>2623.9</v>
+        <v>573.783</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1986,7 +1929,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>2999.817</v>
+        <v>577.2</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1994,159 +1937,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>6116.234</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" t="s">
-        <v>144</v>
-      </c>
-      <c r="B144">
-        <v>6574.517</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" t="s">
-        <v>145</v>
-      </c>
-      <c r="B145">
-        <v>4849.284</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146">
-        <v>3409.75</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" t="s">
-        <v>147</v>
-      </c>
-      <c r="B147">
-        <v>3116.217</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" t="s">
-        <v>148</v>
-      </c>
-      <c r="B148">
-        <v>2748.1</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" t="s">
-        <v>149</v>
-      </c>
-      <c r="B149">
-        <v>3076.5</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" t="s">
-        <v>150</v>
-      </c>
-      <c r="B150">
-        <v>5145.65</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
-      <c r="A151" t="s">
-        <v>151</v>
-      </c>
-      <c r="B151">
-        <v>5157.1</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2">
-      <c r="A152" t="s">
-        <v>152</v>
-      </c>
-      <c r="B152">
-        <v>5174.25</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" t="s">
-        <v>153</v>
-      </c>
-      <c r="B153">
-        <v>3962.583</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" t="s">
-        <v>154</v>
-      </c>
-      <c r="B154">
-        <v>3883.233</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" t="s">
-        <v>155</v>
-      </c>
-      <c r="B155">
-        <v>5400.35</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" t="s">
-        <v>156</v>
-      </c>
-      <c r="B156">
-        <v>2388.216</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" t="s">
-        <v>157</v>
-      </c>
-      <c r="B157">
-        <v>1298.65</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" t="s">
-        <v>158</v>
-      </c>
-      <c r="B158">
-        <v>1259.333</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" t="s">
-        <v>159</v>
-      </c>
-      <c r="B159">
-        <v>1202.384</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
-      <c r="A160" t="s">
-        <v>160</v>
-      </c>
-      <c r="B160">
-        <v>1012.866</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2">
-      <c r="A161" t="s">
-        <v>161</v>
-      </c>
-      <c r="B161">
-        <v>885.5170000000001</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" t="s">
-        <v>162</v>
-      </c>
-      <c r="B162">
-        <v>869.8</v>
+        <v>594.883</v>
       </c>
     </row>
   </sheetData>

--- a/Generation_Day.xlsx
+++ b/Generation_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
-  <si>
-    <t>Daily Generation of Microgrid (Plant 9209949):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
+  <si>
+    <t>Daily Generation of Microgrid (Plant 5340310):</t>
   </si>
   <si>
     <t>Hours</t>
@@ -25,484 +25,730 @@
     <t>Generation (kWh)</t>
   </si>
   <si>
-    <t>2023-03-14T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-03-14T13:20:00</t>
+    <t>2023-04-11T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T13:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T14:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T15:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T16:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T17:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T18:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T19:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T20:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T20:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-11T20:10:00</t>
   </si>
 </sst>
 </file>
@@ -848,7 +1094,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C162"/>
+  <dimension ref="A1:C244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1466,7 +1712,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>8.384</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1474,7 +1720,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>82.01600000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1482,7 +1728,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>163.317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1490,7 +1736,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>276.033</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1498,7 +1744,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>456.334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1506,7 +1752,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>446.784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1514,7 +1760,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>559.134</v>
+        <v>175.184</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1522,7 +1768,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>745.2</v>
+        <v>511.383</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1530,7 +1776,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>920.034</v>
+        <v>436.7</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1538,7 +1784,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>1081.467</v>
+        <v>639.85</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1546,7 +1792,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>1116.15</v>
+        <v>844.7</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1554,7 +1800,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1109.75</v>
+        <v>1176.483</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1562,7 +1808,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1458.55</v>
+        <v>1694.017</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1570,7 +1816,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>1484.35</v>
+        <v>2096.55</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1578,7 +1824,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2053.05</v>
+        <v>2312.833</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1586,7 +1832,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>1747.983</v>
+        <v>2526.233</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1594,7 +1840,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>1564.617</v>
+        <v>2782.284</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1602,7 +1848,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>1360.983</v>
+        <v>2919.1</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1610,7 +1856,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>1018.083</v>
+        <v>3145.433</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1618,7 +1864,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>1400.983</v>
+        <v>3367.816</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1626,7 +1872,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>1286.8</v>
+        <v>3548.416</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1634,7 +1880,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>730.434</v>
+        <v>3715.05</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1642,7 +1888,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>586.95</v>
+        <v>3946.217</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1650,7 +1896,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>873.217</v>
+        <v>4130.416</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1658,7 +1904,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>890.3339999999999</v>
+        <v>4290.416</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1666,7 +1912,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>770.8</v>
+        <v>4445.083</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1674,7 +1920,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>764.033</v>
+        <v>4626.017</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1682,7 +1928,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>832.067</v>
+        <v>4778.133</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1690,7 +1936,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>1067.434</v>
+        <v>4936.5</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1698,7 +1944,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>1040.917</v>
+        <v>5121.783</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1706,7 +1952,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>1060.317</v>
+        <v>5279.55</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1714,7 +1960,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>1213.933</v>
+        <v>5424.984</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1722,7 +1968,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>1360.767</v>
+        <v>5573.683</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1730,7 +1976,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>1151.85</v>
+        <v>5693.15</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1738,7 +1984,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>1342.533</v>
+        <v>5820.633</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1746,7 +1992,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>1142.567</v>
+        <v>5905.667</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -1754,7 +2000,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>1374.917</v>
+        <v>6073.317</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -1762,7 +2008,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>1547.9</v>
+        <v>6197.2</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -1770,7 +2016,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>2043.316</v>
+        <v>6362.233</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -1778,7 +2024,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>1972.633</v>
+        <v>6468.8</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -1786,7 +2032,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>1800.9</v>
+        <v>6337.016</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -1794,7 +2040,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>2137.4</v>
+        <v>6120.117</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -1802,7 +2048,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3141.883</v>
+        <v>5944.783</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -1810,7 +2056,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3249.417</v>
+        <v>5473.583</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -1818,7 +2064,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2664.633</v>
+        <v>5303.533</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -1826,7 +2072,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>2739.667</v>
+        <v>5246.75</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -1834,7 +2080,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>3001.05</v>
+        <v>5164.834</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -1842,7 +2088,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>3602.8</v>
+        <v>5147.134</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -1850,7 +2096,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>5163.45</v>
+        <v>5145.083</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -1858,7 +2104,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>6593.917</v>
+        <v>5141.15</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -1866,7 +2112,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>6508.134</v>
+        <v>5142.933</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -1874,7 +2120,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>6608.983</v>
+        <v>5113.9</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -1882,7 +2128,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>6596.816</v>
+        <v>5125.083</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -1890,7 +2136,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>6308.9</v>
+        <v>5090.116</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -1898,7 +2144,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>6552.033</v>
+        <v>5056.083</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -1906,7 +2152,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>6481</v>
+        <v>2965.217</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -1914,7 +2160,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>6571.816</v>
+        <v>859.617</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -1922,7 +2168,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>6225.666</v>
+        <v>714.634</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -1930,7 +2176,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>5905.734</v>
+        <v>717.133</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -1938,7 +2184,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>4907.133</v>
+        <v>703.3</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -1946,7 +2192,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>4484.15</v>
+        <v>666.417</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -1954,7 +2200,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>4956.133</v>
+        <v>639.2329999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -1962,7 +2208,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>5622.616</v>
+        <v>616.867</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -1970,7 +2216,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>4343.55</v>
+        <v>605.5170000000001</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -1978,7 +2224,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>2623.9</v>
+        <v>604.5</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -1986,7 +2232,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>2999.817</v>
+        <v>600.0170000000001</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -1994,7 +2240,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>6116.234</v>
+        <v>592.333</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2002,7 +2248,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>6574.517</v>
+        <v>570.433</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2010,7 +2256,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>4849.284</v>
+        <v>556.0839999999999</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2018,7 +2264,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>3409.75</v>
+        <v>551.0839999999999</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2026,7 +2272,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>3116.217</v>
+        <v>526.2670000000001</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2034,7 +2280,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>2748.1</v>
+        <v>481.55</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2042,7 +2288,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>3076.5</v>
+        <v>461.033</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2050,7 +2296,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>5145.65</v>
+        <v>481.833</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2058,7 +2304,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>5157.1</v>
+        <v>499.333</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2066,7 +2312,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>5174.25</v>
+        <v>496.366</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2074,7 +2320,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>3962.583</v>
+        <v>489.167</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2082,7 +2328,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>3883.233</v>
+        <v>495.484</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2090,7 +2336,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>5400.35</v>
+        <v>499.75</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2098,7 +2344,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>2388.216</v>
+        <v>496.783</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2106,7 +2352,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>1298.65</v>
+        <v>508.067</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2114,7 +2360,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>1259.333</v>
+        <v>497.317</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2122,7 +2368,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>1202.384</v>
+        <v>493.316</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2130,7 +2376,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>1012.866</v>
+        <v>495.683</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2138,7 +2384,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>885.5170000000001</v>
+        <v>499.483</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2146,7 +2392,663 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>869.8</v>
+        <v>503.05</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163">
+        <v>513.516</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>164</v>
+      </c>
+      <c r="B164">
+        <v>511.35</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>165</v>
+      </c>
+      <c r="B165">
+        <v>515.167</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>166</v>
+      </c>
+      <c r="B166">
+        <v>514.583</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>167</v>
+      </c>
+      <c r="B167">
+        <v>510.15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>168</v>
+      </c>
+      <c r="B168">
+        <v>499.283</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>169</v>
+      </c>
+      <c r="B169">
+        <v>493.45</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>170</v>
+      </c>
+      <c r="B170">
+        <v>504.584</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>171</v>
+      </c>
+      <c r="B171">
+        <v>511.267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
+        <v>172</v>
+      </c>
+      <c r="B172">
+        <v>503.234</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
+        <v>173</v>
+      </c>
+      <c r="B173">
+        <v>491.316</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
+        <v>174</v>
+      </c>
+      <c r="B174">
+        <v>469.917</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>175</v>
+      </c>
+      <c r="B175">
+        <v>434.833</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>176</v>
+      </c>
+      <c r="B176">
+        <v>425.183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>177</v>
+      </c>
+      <c r="B177">
+        <v>425.7</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>178</v>
+      </c>
+      <c r="B178">
+        <v>424.534</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>179</v>
+      </c>
+      <c r="B179">
+        <v>414.15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>180</v>
+      </c>
+      <c r="B180">
+        <v>384.884</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>181</v>
+      </c>
+      <c r="B181">
+        <v>363.767</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>182</v>
+      </c>
+      <c r="B182">
+        <v>338.2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>183</v>
+      </c>
+      <c r="B183">
+        <v>325.767</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>184</v>
+      </c>
+      <c r="B184">
+        <v>345.734</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>185</v>
+      </c>
+      <c r="B185">
+        <v>361.816</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>186</v>
+      </c>
+      <c r="B186">
+        <v>343.367</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>187</v>
+      </c>
+      <c r="B187">
+        <v>356.517</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>188</v>
+      </c>
+      <c r="B188">
+        <v>399.433</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>189</v>
+      </c>
+      <c r="B189">
+        <v>398.616</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>190</v>
+      </c>
+      <c r="B190">
+        <v>405.716</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>191</v>
+      </c>
+      <c r="B191">
+        <v>400.6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>192</v>
+      </c>
+      <c r="B192">
+        <v>410.167</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>193</v>
+      </c>
+      <c r="B193">
+        <v>402.816</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>194</v>
+      </c>
+      <c r="B194">
+        <v>394.5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>195</v>
+      </c>
+      <c r="B195">
+        <v>380.566</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>196</v>
+      </c>
+      <c r="B196">
+        <v>404.234</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>197</v>
+      </c>
+      <c r="B197">
+        <v>396.133</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>198</v>
+      </c>
+      <c r="B198">
+        <v>410.667</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>199</v>
+      </c>
+      <c r="B199">
+        <v>424.8</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>200</v>
+      </c>
+      <c r="B200">
+        <v>434.967</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>201</v>
+      </c>
+      <c r="B201">
+        <v>385.733</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>202</v>
+      </c>
+      <c r="B202">
+        <v>348.383</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>203</v>
+      </c>
+      <c r="B203">
+        <v>233.6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
+        <v>204</v>
+      </c>
+      <c r="B204">
+        <v>190.034</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>205</v>
+      </c>
+      <c r="B205">
+        <v>179.884</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>206</v>
+      </c>
+      <c r="B206">
+        <v>194.75</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207">
+        <v>191.967</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>208</v>
+      </c>
+      <c r="B208">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>209</v>
+      </c>
+      <c r="B209">
+        <v>185.784</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>210</v>
+      </c>
+      <c r="B210">
+        <v>137.034</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>211</v>
+      </c>
+      <c r="B211">
+        <v>74.133</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
+        <v>212</v>
+      </c>
+      <c r="B212">
+        <v>4.783</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>213</v>
+      </c>
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>214</v>
+      </c>
+      <c r="B214">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>215</v>
+      </c>
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>216</v>
+      </c>
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>217</v>
+      </c>
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>218</v>
+      </c>
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
+        <v>219</v>
+      </c>
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>220</v>
+      </c>
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>221</v>
+      </c>
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>222</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>223</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>224</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>225</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>226</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>227</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>228</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>229</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>230</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
+        <v>231</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>232</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>233</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>234</v>
+      </c>
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
+        <v>235</v>
+      </c>
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
+        <v>236</v>
+      </c>
+      <c r="B236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
+        <v>237</v>
+      </c>
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
+        <v>238</v>
+      </c>
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
+        <v>239</v>
+      </c>
+      <c r="B239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
+        <v>240</v>
+      </c>
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
+        <v>241</v>
+      </c>
+      <c r="B241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
+        <v>242</v>
+      </c>
+      <c r="B242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
+        <v>243</v>
+      </c>
+      <c r="B243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
+        <v>244</v>
+      </c>
+      <c r="B244">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Generation_Day.xlsx
+++ b/Generation_Day.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="245">
-  <si>
-    <t>Daily Generation of Microgrid (Plant 5340310):</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="237">
+  <si>
+    <t>Daily Generation of Microgrid (Plant 9209949):</t>
   </si>
   <si>
     <t>Hours</t>
@@ -25,730 +25,706 @@
     <t>Generation (kWh)</t>
   </si>
   <si>
-    <t>2023-04-11T00:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T00:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T01:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T02:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T03:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T04:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T05:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T06:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T07:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T08:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T09:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T10:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T11:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T12:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T13:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T14:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T15:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T16:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T17:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T18:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:10:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:15:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:20:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:25:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:30:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:35:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:40:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:45:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:50:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T19:55:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T20:00:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T20:05:00</t>
-  </si>
-  <si>
-    <t>2023-04-11T20:10:00</t>
+    <t>2023-04-12T00:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T00:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T01:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T02:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T03:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T04:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T05:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T06:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T07:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T08:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T09:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T10:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T11:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T12:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T13:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T14:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T15:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T16:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T17:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:30:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:35:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:40:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:45:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:50:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T18:55:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:00:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:05:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:10:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:15:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:20:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:25:00</t>
+  </si>
+  <si>
+    <t>2023-04-12T19:30:00</t>
   </si>
 </sst>
 </file>
@@ -1094,7 +1070,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C244"/>
+  <dimension ref="A1:C236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1704,7 +1680,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>0</v>
+        <v>1.267</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1712,7 +1688,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0</v>
+        <v>110.783</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1720,7 +1696,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>160.55</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1728,7 +1704,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>173.484</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1736,7 +1712,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>189.4</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1744,7 +1720,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0</v>
+        <v>199.6</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1752,7 +1728,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>209.917</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1760,7 +1736,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>175.184</v>
+        <v>241.517</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1768,7 +1744,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>511.383</v>
+        <v>280.05</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1776,7 +1752,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>436.7</v>
+        <v>288.533</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1784,7 +1760,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>639.85</v>
+        <v>281.984</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1792,7 +1768,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>844.7</v>
+        <v>304.133</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1800,7 +1776,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1176.483</v>
+        <v>379.4</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1808,7 +1784,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>1694.017</v>
+        <v>569.5</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1816,7 +1792,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2096.55</v>
+        <v>1362.233</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1824,7 +1800,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2312.833</v>
+        <v>2527.466</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1832,7 +1808,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2526.233</v>
+        <v>2902.733</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1840,7 +1816,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>2782.284</v>
+        <v>3162.483</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1848,7 +1824,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2919.1</v>
+        <v>3388.15</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1856,7 +1832,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>3145.433</v>
+        <v>3572.25</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1864,7 +1840,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>3367.816</v>
+        <v>3701.533</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1872,7 +1848,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>3548.416</v>
+        <v>3981.3</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1880,7 +1856,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>3715.05</v>
+        <v>4205.85</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1888,7 +1864,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>3946.217</v>
+        <v>4508.467</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1896,7 +1872,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>4130.416</v>
+        <v>4038.916</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1904,7 +1880,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>4290.416</v>
+        <v>2503.95</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1912,7 +1888,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>4445.083</v>
+        <v>2711.467</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1920,7 +1896,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>4626.017</v>
+        <v>2338.234</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1928,7 +1904,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>4778.133</v>
+        <v>1863.017</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1936,7 +1912,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>4936.5</v>
+        <v>1492.034</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1944,7 +1920,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>5121.783</v>
+        <v>1848.467</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1952,7 +1928,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>5279.55</v>
+        <v>2381.65</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1960,7 +1936,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>5424.984</v>
+        <v>2279.067</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -1968,7 +1944,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>5573.683</v>
+        <v>1895.85</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -1976,7 +1952,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>5693.15</v>
+        <v>1611.884</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -1984,7 +1960,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>5820.633</v>
+        <v>1534.65</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -1992,7 +1968,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>5905.667</v>
+        <v>1437.75</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2000,7 +1976,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>6073.317</v>
+        <v>1433.466</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2008,7 +1984,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>6197.2</v>
+        <v>1557.084</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2016,7 +1992,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>6362.233</v>
+        <v>1688.3</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2024,7 +2000,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>6468.8</v>
+        <v>1930.566</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2032,7 +2008,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>6337.016</v>
+        <v>2157.05</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2040,7 +2016,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>6120.117</v>
+        <v>2480.75</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2048,7 +2024,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>5944.783</v>
+        <v>3057.633</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2056,7 +2032,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>5473.583</v>
+        <v>3683.784</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2064,7 +2040,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>5303.533</v>
+        <v>3699.833</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2072,7 +2048,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>5246.75</v>
+        <v>3750.417</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2080,7 +2056,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>5164.834</v>
+        <v>3830.417</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2088,7 +2064,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>5147.134</v>
+        <v>4301.883</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2096,7 +2072,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>5145.083</v>
+        <v>6196.534</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2104,7 +2080,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>5141.15</v>
+        <v>5470.6</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2112,7 +2088,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>5142.933</v>
+        <v>5798.167</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2120,7 +2096,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>5113.9</v>
+        <v>4993.233</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2128,7 +2104,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>5125.083</v>
+        <v>4580.183</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2136,7 +2112,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>5090.116</v>
+        <v>4661.483</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2144,7 +2120,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>5056.083</v>
+        <v>5438.183</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2152,7 +2128,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>2965.217</v>
+        <v>5785.2</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2160,7 +2136,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>859.617</v>
+        <v>5127.7</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2168,7 +2144,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>714.634</v>
+        <v>6347.633</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2176,7 +2152,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>717.133</v>
+        <v>6755.15</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2184,7 +2160,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>703.3</v>
+        <v>6181.767</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2192,7 +2168,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>666.417</v>
+        <v>6701.883</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2200,7 +2176,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>639.2329999999999</v>
+        <v>5860.9</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2208,7 +2184,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>616.867</v>
+        <v>5905.116</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2216,7 +2192,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>605.5170000000001</v>
+        <v>6554.25</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2224,7 +2200,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>604.5</v>
+        <v>5639.2</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2232,7 +2208,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>600.0170000000001</v>
+        <v>3601.333</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2240,7 +2216,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>592.333</v>
+        <v>3900.667</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2248,7 +2224,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>570.433</v>
+        <v>4133.017</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2256,7 +2232,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>556.0839999999999</v>
+        <v>3743.1</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2264,7 +2240,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>551.0839999999999</v>
+        <v>3474.517</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2272,7 +2248,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>526.2670000000001</v>
+        <v>4045.85</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2280,7 +2256,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>481.55</v>
+        <v>4571.583</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2288,7 +2264,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>461.033</v>
+        <v>5038.766</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2296,7 +2272,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>481.833</v>
+        <v>2695.95</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2304,7 +2280,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>499.333</v>
+        <v>1578.217</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2312,7 +2288,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>496.366</v>
+        <v>1172.1</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2320,7 +2296,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>489.167</v>
+        <v>1071.333</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2328,7 +2304,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>495.484</v>
+        <v>966.383</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2336,7 +2312,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>499.75</v>
+        <v>941.2329999999999</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2344,7 +2320,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>496.783</v>
+        <v>878.217</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2352,7 +2328,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>508.067</v>
+        <v>870.067</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2360,7 +2336,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>497.317</v>
+        <v>837.167</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2368,7 +2344,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>493.316</v>
+        <v>784.35</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2376,7 +2352,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>495.683</v>
+        <v>728.117</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2384,7 +2360,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>499.483</v>
+        <v>690.283</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2392,7 +2368,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>503.05</v>
+        <v>679.95</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2400,7 +2376,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>513.516</v>
+        <v>672.717</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2408,7 +2384,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>511.35</v>
+        <v>678.417</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2416,7 +2392,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>515.167</v>
+        <v>684.3</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2424,7 +2400,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>514.583</v>
+        <v>700.467</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2432,7 +2408,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>510.15</v>
+        <v>717.967</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2440,7 +2416,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>499.283</v>
+        <v>708.95</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2448,7 +2424,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>493.45</v>
+        <v>708.45</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2456,7 +2432,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>504.584</v>
+        <v>695.6</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2464,7 +2440,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>511.267</v>
+        <v>691.066</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2472,7 +2448,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>503.234</v>
+        <v>688.683</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2480,7 +2456,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>491.316</v>
+        <v>689.117</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2488,7 +2464,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>469.917</v>
+        <v>693.4829999999999</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2496,7 +2472,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>434.833</v>
+        <v>692.933</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2504,7 +2480,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>425.183</v>
+        <v>707.5170000000001</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2512,7 +2488,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>425.7</v>
+        <v>696.2670000000001</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2520,7 +2496,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>424.534</v>
+        <v>707.5</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2528,7 +2504,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>414.15</v>
+        <v>715.633</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2536,7 +2512,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>384.884</v>
+        <v>695.016</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2544,7 +2520,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>363.767</v>
+        <v>688.083</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2552,7 +2528,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>338.2</v>
+        <v>696.433</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2560,7 +2536,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>325.767</v>
+        <v>688.9</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2568,7 +2544,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>345.734</v>
+        <v>694.05</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2576,7 +2552,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>361.816</v>
+        <v>698.984</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2584,7 +2560,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>343.367</v>
+        <v>689.284</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2592,7 +2568,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>356.517</v>
+        <v>686.65</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2600,7 +2576,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>399.433</v>
+        <v>595.567</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2608,7 +2584,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>398.616</v>
+        <v>572.117</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2616,7 +2592,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>405.716</v>
+        <v>537.2329999999999</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2624,7 +2600,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>400.6</v>
+        <v>518.316</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2632,7 +2608,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>410.167</v>
+        <v>527.2</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2640,7 +2616,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>402.816</v>
+        <v>547.333</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2648,7 +2624,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>394.5</v>
+        <v>555.383</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2656,7 +2632,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>380.566</v>
+        <v>553.5</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2664,7 +2640,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>404.234</v>
+        <v>552.317</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2672,7 +2648,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>396.133</v>
+        <v>550.783</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2680,7 +2656,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>410.667</v>
+        <v>547.25</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2688,7 +2664,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>424.8</v>
+        <v>551.817</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2696,7 +2672,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>434.967</v>
+        <v>554.583</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2704,7 +2680,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>385.733</v>
+        <v>556.25</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2712,7 +2688,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>348.383</v>
+        <v>556.867</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2720,7 +2696,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>233.6</v>
+        <v>563.083</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2728,7 +2704,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>190.034</v>
+        <v>554.7329999999999</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2736,7 +2712,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>179.884</v>
+        <v>487.333</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2744,7 +2720,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>194.75</v>
+        <v>394.1</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2752,7 +2728,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>191.967</v>
+        <v>314.917</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2760,7 +2736,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>198</v>
+        <v>229.9</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2768,7 +2744,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>185.784</v>
+        <v>169.55</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2776,7 +2752,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>137.034</v>
+        <v>120.683</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2784,7 +2760,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>74.133</v>
+        <v>70.31699999999999</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2792,7 +2768,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>4.783</v>
+        <v>20.667</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2984,70 +2960,6 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" t="s">
-        <v>237</v>
-      </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" t="s">
-        <v>238</v>
-      </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" t="s">
-        <v>239</v>
-      </c>
-      <c r="B239">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2">
-      <c r="A240" t="s">
-        <v>240</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2">
-      <c r="A241" t="s">
-        <v>241</v>
-      </c>
-      <c r="B241">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" t="s">
-        <v>242</v>
-      </c>
-      <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2">
-      <c r="A243" t="s">
-        <v>243</v>
-      </c>
-      <c r="B243">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2">
-      <c r="A244" t="s">
-        <v>244</v>
-      </c>
-      <c r="B244">
         <v>0</v>
       </c>
     </row>
